--- a/compat/tablesSchema.1.1.3.xlsx
+++ b/compat/tablesSchema.1.1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="13530" windowHeight="5595" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="417">
   <si>
     <t>Type</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t>DO NOT TOUCH, AUTOMATICALLY FILLED</t>
+  </si>
+  <si>
+    <t>IF((RELATION{SummarizedInformation,type.code}==CWD),N305A,N123A)</t>
   </si>
 </sst>
 </file>
@@ -4031,7 +4034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6475,11 +6478,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,10 +6620,7 @@
         <v>4</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>15</v>
+        <v>416</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>10</v>

--- a/compat/tablesSchema.1.1.3.xlsx
+++ b/compat/tablesSchema.1.1.3.xlsx
@@ -4542,10 +4542,10 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6479,10 +6479,10 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
